--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3987016.354711937</v>
+        <v>3983003.744697946</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283166</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>10.13659100914477</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>259.0938222390145</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.533183649868</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>166.1712432162374</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>81.46084344268542</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>56.00612878790368</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>5.400304892654581</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>153.7665065845759</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>35.4565093469563</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>387.3568991626943</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>150.1517509194881</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>4.211495993475206</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386407</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444145</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>42.20606459030861</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722615</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695798</v>
+        <v>83.7025149569568</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576158</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784687</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560533</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.831980181937</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986275</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.615473018212</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462235</v>
+        <v>83.06560892428298</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856522</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016443</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>196.9266150675039</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365907</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890368</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695499</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881283</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.831980181937</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>22.61263105778099</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465689</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922685</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856522</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012137</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016443</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365907</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890368</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.831980181937</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986275</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.615473018212</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856522</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012137</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016443</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.405450327288</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>158.4589496224541</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365907</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890368</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.831980181937</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986275</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.615473018212</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465689</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229309</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922685</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462235</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856522</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>60.11729550774267</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016443</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890368</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>82.25298866282583</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>27.24739666248491</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>42.71572132711324</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576188</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>131.6329842920053</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,10 +3432,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.85274231757958</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>113.3048871355479</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>171.4915124652516</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>115.2707447515132</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8913819999791</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1239.503030201924</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C2" t="n">
-        <v>870.5405132615124</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>512.2748146547618</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>126.4865620565176</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796418</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X2" t="n">
-        <v>2016.242202241858</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y2" t="n">
-        <v>1626.102870266046</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="3">
@@ -4400,58 +4400,58 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501177</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218343</v>
+        <v>700.0944266746553</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>838.6033255730482</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>583.9188373671614</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>294.5016673302008</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X4" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218343</v>
+        <v>700.0944266746553</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1639.433183287319</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="C5" t="n">
-        <v>1270.470666346907</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3320.150968182247</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3066.620491456084</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2735.557604112513</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524211</v>
+        <v>2382.788948842398</v>
       </c>
       <c r="X5" t="n">
-        <v>2029.572515263131</v>
+        <v>2009.323190581319</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.433183287319</v>
+        <v>1619.183858605507</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>481.6572696514548</v>
+        <v>221.8318200529672</v>
       </c>
       <c r="C7" t="n">
-        <v>481.6572696514548</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>699.120390387711</v>
+        <v>631.4698357812242</v>
       </c>
       <c r="X7" t="n">
-        <v>663.3057344816946</v>
+        <v>403.4802848832069</v>
       </c>
       <c r="Y7" t="n">
-        <v>663.3057344816946</v>
+        <v>403.4802848832069</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1530.167618932618</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>869.0763550278973</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>510.8106564211468</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>510.8106564211468</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>1920.30695090843</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>1530.167618932618</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>380.4321398396067</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>380.4321398396067</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396067</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396067</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>384.6861761966524</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>380.4321398396067</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>380.4321398396067</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>380.4321398396067</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362694</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>917.5010142286973</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>748.5648313007904</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>598.4481918884546</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>450.5350983060615</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>303.6451508081511</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>136.4490515230311</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1099.149479058937</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,40 +5290,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>636.6680198981016</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C16" t="n">
-        <v>467.731836970195</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578596</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578596</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578596</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578596</v>
+        <v>177.7213185270456</v>
       </c>
       <c r="H16" t="n">
-        <v>175.903366400058</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.052681478296</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038349</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797754</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
         <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580263</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258109</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602307</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1556.515784806848</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1267.098614769888</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1039.109063871871</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y16" t="n">
-        <v>818.316484728341</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192662</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,7 +5551,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400766</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400766</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851777</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851777</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.903366400058</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.903366400058</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.052681478296</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038349</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797754</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.06254548757</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510512</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.38585385471</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648823</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611863</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138457</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703159</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="20">
@@ -5734,22 +5734,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
         <v>378.192580311172</v>
@@ -5834,22 +5834,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>642.8692823226927</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>473.9330993947862</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>323.8164599824507</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>175.903366400058</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>175.903366400058</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.903366400058</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.903366400058</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.052681478296</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038349</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797754</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.06254548757</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510512</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>1817.401535437326</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1562.717047231439</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1273.299877194479</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1045.310326296462</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>824.5177471529321</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263524</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408894</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429793</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578596</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.903366400058</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.052681478296</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038349</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797754</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2386.238542663351</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2203.383708318256</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1983.782243341197</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1983.782243341197</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.097755135311</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135311</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237293</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093764</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,61 +6202,61 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6478,34 +6478,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400721</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400721</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400721</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>365.940507157679</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>219.0505596597687</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703119</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061504</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.043492616111</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2148.043492616111</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2131.145638839201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1842.070412183399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1587.385923977512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273908</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239598</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.212916266271</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2149.810879820878</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2149.810879820878</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.53722908186</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153953</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741617</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159224</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>4471.231687421536</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>4182.156460765734</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>3927.471972559847</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>3638.054802522886</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>3410.065251624869</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>3342.53722908186</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,31 +7171,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961527</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622705</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1337.934786622705</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>923.4916164683292</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>754.5554335404223</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>604.4387941280866</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>604.4387941280866</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>457.5488466301762</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>290.3527473450561</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611859</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.4916164683292</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111695</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>315.9123021921471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898186992</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.6905094135296</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>700.7543264856228</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832664</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855605</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199803</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993916</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.121104285317</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.131553387299</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.338974243769</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7730,19 +7730,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191926</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403286</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400721</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400721</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>98.08864825591527</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922685</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194088</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012137</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>55.21102825632383</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>126.0028419604311</v>
+        <v>39.70888054695399</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462235</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229309</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922685</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462235</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>127.7255247667898</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.257951202378706</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892439</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365907</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>84.99383243580201</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>122.8084169651556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>85.772466035283</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>151.7319110345152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>26.98982571067597</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>80.64613085857636</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>171.2522535850778</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>41.54258064659007</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>619998.6049278002</v>
+        <v>619998.6049278001</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>619998.6049278004</v>
+        <v>619998.6049278002</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>619998.6049278004</v>
+        <v>619998.6049278002</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>619998.6049278002</v>
+        <v>619998.6049278001</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>619998.6049278001</v>
+        <v>619998.6049278002</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>619998.6049278002</v>
+        <v>619998.6049278001</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900066</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.599690006</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="M2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900065</v>
       </c>
-      <c r="N2" t="n">
-        <v>807146.5996900061</v>
-      </c>
       <c r="O2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900061</v>
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>2.425319204727808e-10</v>
+        <v>3.892194875977017e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>5.735925393916356e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.425319204727808e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,46 +26420,46 @@
         <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687996</v>
+        <v>15436.6400068796</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687984</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687977</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687976</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687972</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="K4" t="n">
-        <v>15436.64000687954</v>
-      </c>
       <c r="L4" t="n">
-        <v>15436.64000687954</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26496,10 +26496,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709233.6605287555</v>
+        <v>-709233.6605287554</v>
       </c>
       <c r="C6" t="n">
-        <v>619511.0851988371</v>
+        <v>619511.0851988372</v>
       </c>
       <c r="D6" t="n">
-        <v>619511.0851988371</v>
+        <v>619511.085198837</v>
       </c>
       <c r="E6" t="n">
-        <v>365174.9680518641</v>
+        <v>364827.5887975072</v>
       </c>
       <c r="F6" t="n">
-        <v>690587.4298592191</v>
+        <v>690240.0506048622</v>
       </c>
       <c r="G6" t="n">
-        <v>690587.4298592192</v>
+        <v>690240.0506048632</v>
       </c>
       <c r="H6" t="n">
-        <v>690587.4298592194</v>
+        <v>690240.0506048629</v>
       </c>
       <c r="I6" t="n">
-        <v>690587.4298592195</v>
+        <v>690240.0506048623</v>
       </c>
       <c r="J6" t="n">
-        <v>473056.2274619422</v>
+        <v>472708.848207585</v>
       </c>
       <c r="K6" t="n">
-        <v>690587.4298592189</v>
+        <v>690240.0506048625</v>
       </c>
       <c r="L6" t="n">
-        <v>690587.4298592194</v>
+        <v>690240.0506048626</v>
       </c>
       <c r="M6" t="n">
-        <v>605532.4019237079</v>
+        <v>605185.0226693507</v>
       </c>
       <c r="N6" t="n">
-        <v>690587.4298592194</v>
+        <v>690240.0506048627</v>
       </c>
       <c r="O6" t="n">
-        <v>690587.4298592194</v>
+        <v>690240.0506048626</v>
       </c>
       <c r="P6" t="n">
-        <v>690587.4298592191</v>
+        <v>690240.0506048624</v>
       </c>
     </row>
   </sheetData>
@@ -26697,19 +26697,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26816,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>3.720839728281323e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>355.1363007618628</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>110.6372784394545</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>1.075577882390434</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>108.3081818887565</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>298.6769128327793</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>198.5176652469655</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>13.48031451405194</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2531460420809</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>19.5191465790171</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>219.5793497589809</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28070,16 +28070,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>282.3115023431158</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282307</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-7.806284354560061e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28566,10 +28566,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28614,19 +28614,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.031649005909761e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-2.701199264265597e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-2.409928121746308e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,7 +32235,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
         <v>699.5441750817575</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,22 +32320,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32554,10 +32554,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>568.8264345569168</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33028,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>531.8166820790245</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>370.9642309107737</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>543.0832917018702</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>268.6704608606955</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>669.4669885000061</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663262</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>211.0222436375109</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,22 +34450,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>490.5075832355672</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597691</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295366</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096353</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010454</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066252</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295366</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096353</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010454</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36202,10 +36202,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>430.2720547770426</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295366</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096353</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010454</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295366</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096353</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010454</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36676,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>393.2623022991504</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>228.3679864663293</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>409.1088842875399</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>134.6960534463653</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>526.8707440555617</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>73.18080466315196</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>351.953203455693</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3983003.744697946</v>
+        <v>3984764.275000731</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.533183649868</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>166.1712432162374</v>
+        <v>166.1712432162368</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>153.7665065845759</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>65.79537822841601</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>387.3568991626943</v>
+        <v>387.3568991626939</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386407</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444145</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.3687739767479</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569568</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428298</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1897,10 +1897,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>108.9065924712584</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2089,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2289,13 +2289,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>27.24739666248491</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>70.58974991479201</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>127.5379405516739</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>41.55695577161151</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>205.5383435306678</v>
       </c>
       <c r="V40" t="n">
-        <v>171.4915124652516</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9.146142788179368</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>34.22340015155905</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4330,19 +4330,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4409,52 +4409,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>700.0944266746553</v>
+        <v>700.0944266746548</v>
       </c>
       <c r="C4" t="n">
         <v>532.2446860521933</v>
@@ -4488,52 +4488,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.0944266746553</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="5">
@@ -4579,7 +4579,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,13 +4649,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4667,31 +4667,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>221.8318200529672</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
         <v>66.51211643218342</v>
@@ -4767,10 +4767,10 @@
         <v>631.4698357812242</v>
       </c>
       <c r="X7" t="n">
-        <v>403.4802848832069</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="Y7" t="n">
-        <v>403.4802848832069</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="8">
@@ -4783,13 +4783,13 @@
         <v>1238.038871968309</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278973</v>
+        <v>869.0763550278969</v>
       </c>
       <c r="D8" t="n">
-        <v>510.8106564211468</v>
+        <v>510.8106564211463</v>
       </c>
       <c r="E8" t="n">
-        <v>510.8106564211468</v>
+        <v>510.8106564211463</v>
       </c>
       <c r="F8" t="n">
         <v>119.5410613073141</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4840,7 +4840,7 @@
         <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
         <v>2388.243802269322</v>
@@ -4849,7 +4849,7 @@
         <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032431</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4962,49 +4962,49 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
         <v>862.0164446829692</v>
@@ -5020,70 +5020,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362694</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>316.6799057705107</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,19 +5290,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516147</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348534</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400726</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121657</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121657</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121657</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121657</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270456</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138424</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703123</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192662</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
         <v>484.8112968429803</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5737,10 +5737,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5971,10 +5971,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6141,7 +6141,7 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6366,16 +6366,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797186</v>
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6600,22 +6600,22 @@
         <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>247.2061440917674</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7074,25 +7074,25 @@
         <v>763.7541388327643</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>277.5052172074016</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>135.7933860495997</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7162,40 +7162,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7365,7 +7365,7 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V40" t="n">
         <v>1582.207807637403</v>
@@ -7402,7 +7402,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0.9259388694759423</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194088</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>39.70888054695399</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23940,7 +23940,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.9994244361429</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>69.70496293143188</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>39.70888054695394</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>39.70888054695403</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>80.64613085857638</v>
       </c>
       <c r="V40" t="n">
-        <v>80.64613085857636</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>136.2749052347519</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>619998.6049278002</v>
+        <v>619998.6049278001</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>619998.6049278002</v>
+        <v>619998.6049278001</v>
       </c>
     </row>
     <row r="9">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.769864283</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642828</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.769864283</v>
-      </c>
       <c r="E2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="F2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="H2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900066</v>
-      </c>
       <c r="I2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="K2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="L2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="M2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900063</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900065</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900063</v>
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>3.892194875977017e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.6400068796</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
@@ -26441,7 +26441,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.6400068797</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26450,10 +26450,10 @@
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.6400068797</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-709233.6605287554</v>
+        <v>-709233.6605287555</v>
       </c>
       <c r="C6" t="n">
         <v>619511.0851988372</v>
@@ -26530,40 +26530,40 @@
         <v>619511.085198837</v>
       </c>
       <c r="E6" t="n">
-        <v>364827.5887975072</v>
+        <v>365140.2301264282</v>
       </c>
       <c r="F6" t="n">
-        <v>690240.0506048622</v>
+        <v>690552.6919337837</v>
       </c>
       <c r="G6" t="n">
-        <v>690240.0506048632</v>
+        <v>690552.6919337837</v>
       </c>
       <c r="H6" t="n">
-        <v>690240.0506048629</v>
+        <v>690552.6919337838</v>
       </c>
       <c r="I6" t="n">
-        <v>690240.0506048623</v>
+        <v>690552.6919337837</v>
       </c>
       <c r="J6" t="n">
-        <v>472708.848207585</v>
+        <v>473021.4895365062</v>
       </c>
       <c r="K6" t="n">
-        <v>690240.0506048625</v>
+        <v>690552.6919337839</v>
       </c>
       <c r="L6" t="n">
-        <v>690240.0506048626</v>
+        <v>690552.6919337839</v>
       </c>
       <c r="M6" t="n">
-        <v>605185.0226693507</v>
+        <v>605497.663998272</v>
       </c>
       <c r="N6" t="n">
-        <v>690240.0506048627</v>
+        <v>690552.6919337839</v>
       </c>
       <c r="O6" t="n">
-        <v>690240.0506048626</v>
+        <v>690552.6919337839</v>
       </c>
       <c r="P6" t="n">
-        <v>690240.0506048624</v>
+        <v>690552.6919337837</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.720839728281323e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>1.075577882390434</v>
+        <v>1.075577882391002</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>13.48031451405194</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>159.9142771606211</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>19.5191465790171</v>
+        <v>19.51914657901756</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282307</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.806284354560061e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -29274,10 +29274,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>400.5469039565762</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643557995</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>257.9506595121318</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113551</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
